--- a/data/trans_orig/P6713-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1937226A-A51B-408E-81C8-CF99D21B12C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBBD5EE-4DA9-4C19-A4D0-D49BF26A490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6BC3EB2B-18BB-4597-988D-6DADF66C7070}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB3819D0-B104-4610-9764-57595AEFDA33}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="573">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>6,23%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>3,28%</t>
@@ -87,16 +87,16 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>9,6%</t>
+    <t>8,93%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -108,7 +108,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,86%</t>
+    <t>7,65%</t>
   </si>
   <si>
     <t>3,37%</t>
@@ -117,1627 +117,1645 @@
     <t>1,03%</t>
   </si>
   <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
   </si>
   <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>33,43%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2DB345-534B-46D0-8F29-824952D9181F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A16885B-4E07-48AA-B808-027831CA4DA5}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2976,7 +2994,7 @@
         <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +3009,13 @@
         <v>87398</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>61</v>
@@ -3006,13 +3024,13 @@
         <v>64556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>148</v>
@@ -3021,13 +3039,13 @@
         <v>151954</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3060,13 @@
         <v>108425</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -3057,13 +3075,13 @@
         <v>60306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>164</v>
@@ -3072,13 +3090,13 @@
         <v>168730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3111,13 @@
         <v>190114</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -3108,13 +3126,13 @@
         <v>125477</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>302</v>
@@ -3123,13 +3141,13 @@
         <v>315591</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,7 +3203,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3197,13 +3215,13 @@
         <v>16467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -3212,13 +3230,13 @@
         <v>12843</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -3227,13 +3245,13 @@
         <v>29309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3266,13 @@
         <v>18659</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3263,13 +3281,13 @@
         <v>18214</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -3278,13 +3296,13 @@
         <v>36873</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,10 +3317,10 @@
         <v>67975</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>171</v>
@@ -3335,7 +3353,7 @@
         <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3368,13 @@
         <v>83394</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -3365,13 +3383,13 @@
         <v>42577</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>108</v>
@@ -3380,13 +3398,13 @@
         <v>125971</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3419,13 @@
         <v>178907</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -3416,13 +3434,13 @@
         <v>95786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>244</v>
@@ -3431,13 +3449,13 @@
         <v>274693</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,7 +3511,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3505,13 +3523,13 @@
         <v>7009</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -3520,13 +3538,13 @@
         <v>7043</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -3535,13 +3553,13 @@
         <v>14052</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,10 +3574,10 @@
         <v>8825</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>205</v>
@@ -3757,7 +3775,7 @@
         <v>146</v>
       </c>
       <c r="D33" s="7">
-        <v>156297</v>
+        <v>156296</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -4127,7 +4145,7 @@
         <v>256</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="H40" s="7">
         <v>56</v>
@@ -4136,13 +4154,13 @@
         <v>60240</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M40" s="7">
         <v>110</v>
@@ -4151,13 +4169,13 @@
         <v>119067</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4190,13 @@
         <v>75679</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H41" s="7">
         <v>57</v>
@@ -4187,13 +4205,13 @@
         <v>63767</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M41" s="7">
         <v>125</v>
@@ -4202,13 +4220,13 @@
         <v>139446</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4241,13 @@
         <v>288346</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H42" s="7">
         <v>184</v>
@@ -4238,13 +4256,13 @@
         <v>198680</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M42" s="7">
         <v>457</v>
@@ -4253,13 +4271,13 @@
         <v>487026</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4292,13 @@
         <v>324840</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H43" s="7">
         <v>181</v>
@@ -4289,13 +4307,13 @@
         <v>198719</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M43" s="7">
         <v>493</v>
@@ -4304,13 +4322,13 @@
         <v>523559</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4343,13 @@
         <v>666760</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H44" s="7">
         <v>394</v>
@@ -4340,13 +4358,13 @@
         <v>422865</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M44" s="7">
         <v>1016</v>
@@ -4355,13 +4373,13 @@
         <v>1089625</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,7 +4435,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4439,7 +4457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CF57CA-A930-474E-8BD1-A6EAE193CBFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB77565-7FB9-4F40-AD57-6D8C0B0C03CD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4456,7 +4474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4563,13 +4581,13 @@
         <v>2484</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4578,13 +4596,13 @@
         <v>4963</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4593,13 +4611,13 @@
         <v>7446</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4632,13 @@
         <v>10471</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4629,13 +4647,13 @@
         <v>13157</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>35</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4644,13 +4662,13 @@
         <v>23628</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4683,13 @@
         <v>23314</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4680,13 +4698,13 @@
         <v>22889</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -4695,13 +4713,13 @@
         <v>46203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,10 +4737,10 @@
         <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -4731,13 +4749,13 @@
         <v>26124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4746,13 +4764,13 @@
         <v>43313</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4785,13 @@
         <v>25651</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -4782,13 +4800,13 @@
         <v>24723</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -4797,13 +4815,13 @@
         <v>50374</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4889,13 @@
         <v>18462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4886,13 +4904,13 @@
         <v>20812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -4901,13 +4919,13 @@
         <v>39275</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4940,13 @@
         <v>32936</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -4937,13 +4955,13 @@
         <v>30859</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -4952,13 +4970,13 @@
         <v>63795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4991,13 @@
         <v>84656</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -4988,13 +5006,13 @@
         <v>64104</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>148</v>
@@ -5003,13 +5021,13 @@
         <v>148761</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5042,13 @@
         <v>89061</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -5039,13 +5057,13 @@
         <v>69965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -5054,13 +5072,13 @@
         <v>159026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5093,13 @@
         <v>119070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>89</v>
@@ -5090,13 +5108,13 @@
         <v>87976</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>377</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>202</v>
@@ -5105,13 +5123,13 @@
         <v>207045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5197,13 @@
         <v>23288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -5194,13 +5212,13 @@
         <v>23543</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -5209,13 +5227,13 @@
         <v>46830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5248,13 @@
         <v>41922</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5245,13 +5263,13 @@
         <v>38575</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -5260,13 +5278,13 @@
         <v>80497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>26</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5299,13 @@
         <v>114691</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -5296,13 +5314,13 @@
         <v>66369</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M18" s="7">
         <v>175</v>
@@ -5311,13 +5329,13 @@
         <v>181060</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>221</v>
+        <v>407</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5350,13 @@
         <v>110688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -5347,13 +5365,13 @@
         <v>87373</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>331</v>
       </c>
       <c r="M19" s="7">
         <v>193</v>
@@ -5362,13 +5380,13 @@
         <v>198061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5401,13 @@
         <v>168999</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -5398,13 +5416,13 @@
         <v>101554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
@@ -5413,13 +5431,13 @@
         <v>270554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,7 +5493,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5487,13 +5505,13 @@
         <v>23041</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -5502,13 +5520,13 @@
         <v>22475</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -5517,13 +5535,13 @@
         <v>45516</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5556,13 @@
         <v>32684</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -5553,13 +5571,13 @@
         <v>32559</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>179</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -5568,13 +5586,13 @@
         <v>65243</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>311</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5607,13 @@
         <v>96508</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -5604,13 +5622,13 @@
         <v>49780</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M24" s="7">
         <v>131</v>
@@ -5619,13 +5637,13 @@
         <v>146288</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5658,13 @@
         <v>104065</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -5655,13 +5673,13 @@
         <v>71176</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M25" s="7">
         <v>162</v>
@@ -5670,13 +5688,13 @@
         <v>175241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5709,13 @@
         <v>111430</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H26" s="7">
         <v>61</v>
@@ -5706,13 +5724,13 @@
         <v>67128</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -5721,13 +5739,13 @@
         <v>178558</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,7 +5801,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5795,13 +5813,13 @@
         <v>14248</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5810,13 +5828,13 @@
         <v>17865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -5825,13 +5843,13 @@
         <v>32113</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>213</v>
+        <v>471</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5864,13 @@
         <v>17579</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>115</v>
+        <v>475</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>124</v>
+        <v>476</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -5861,13 +5879,13 @@
         <v>12474</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>302</v>
+        <v>477</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -5876,13 +5894,13 @@
         <v>30053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>38</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5915,13 @@
         <v>38745</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>318</v>
+        <v>483</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -5912,13 +5930,13 @@
         <v>26327</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="M30" s="7">
         <v>55</v>
@@ -5927,13 +5945,13 @@
         <v>65072</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>480</v>
+        <v>278</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5966,13 @@
         <v>40444</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -5963,13 +5981,13 @@
         <v>18723</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="M31" s="7">
         <v>52</v>
@@ -5978,13 +5996,13 @@
         <v>59167</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6017,13 @@
         <v>54711</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -6014,13 +6032,13 @@
         <v>30489</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="M32" s="7">
         <v>74</v>
@@ -6029,13 +6047,13 @@
         <v>85200</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6136,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6133,13 +6151,13 @@
         <v>1020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6172,13 @@
         <v>1845</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6175,7 +6193,7 @@
         <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -6184,13 +6202,13 @@
         <v>1846</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>87</v>
+        <v>483</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>101</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6238,13 @@
         <v>905</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6235,13 +6253,13 @@
         <v>905</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6274,13 @@
         <v>1970</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>407</v>
+        <v>520</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6271,13 +6289,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6286,13 +6304,13 @@
         <v>3153</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6325,13 @@
         <v>2170</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6322,13 +6340,13 @@
         <v>2082</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6337,13 +6355,13 @@
         <v>4252</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6429,13 @@
         <v>81523</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="H40" s="7">
         <v>86</v>
@@ -6426,13 +6444,13 @@
         <v>90677</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="M40" s="7">
         <v>161</v>
@@ -6441,13 +6459,13 @@
         <v>172200</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6480,13 @@
         <v>137436</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H41" s="7">
         <v>129</v>
@@ -6477,13 +6495,13 @@
         <v>127625</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M41" s="7">
         <v>259</v>
@@ -6492,13 +6510,13 @@
         <v>265061</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>540</v>
+        <v>436</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6531,13 @@
         <v>357915</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H42" s="7">
         <v>227</v>
@@ -6528,13 +6546,13 @@
         <v>230374</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="M42" s="7">
         <v>555</v>
@@ -6543,13 +6561,13 @@
         <v>588290</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6582,13 @@
         <v>363417</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>185</v>
+        <v>557</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>551</v>
+        <v>361</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>552</v>
+        <v>446</v>
       </c>
       <c r="H43" s="7">
         <v>270</v>
@@ -6579,13 +6597,13 @@
         <v>274543</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>402</v>
+        <v>558</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="M43" s="7">
         <v>613</v>
@@ -6594,13 +6612,13 @@
         <v>637961</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +6633,13 @@
         <v>482031</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H44" s="7">
         <v>301</v>
@@ -6630,13 +6648,13 @@
         <v>313952</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="M44" s="7">
         <v>748</v>
@@ -6645,13 +6663,13 @@
         <v>795983</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,7 +6725,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6713-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBBD5EE-4DA9-4C19-A4D0-D49BF26A490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC24C0DA-7056-4057-9884-3FB144F52EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB3819D0-B104-4610-9764-57595AEFDA33}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9252DD38-CB0A-48BC-A963-CBABCA150455}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="571">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>6,23%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>3,28%</t>
@@ -87,1654 +87,1648 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>8,93%</t>
+    <t>8,84%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>2,29%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>14,39%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>12,07%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
   </si>
   <si>
     <t>25,16%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>23,8%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
   </si>
   <si>
     <t>33,89%</t>
   </si>
   <si>
-    <t>31,39%</t>
+    <t>31,28%</t>
   </si>
   <si>
     <t>36,58%</t>
@@ -1743,19 +1737,19 @@
     <t>30,27%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A16885B-4E07-48AA-B808-027831CA4DA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A0E75D-7F57-4246-9218-1549FA74922D}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2940,10 +2934,10 @@
         <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2952,13 @@
         <v>26054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2973,13 +2967,13 @@
         <v>17661</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -2988,13 +2982,13 @@
         <v>43714</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3003,13 @@
         <v>87398</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>61</v>
@@ -3024,13 +3018,13 @@
         <v>64556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>148</v>
@@ -3039,13 +3033,13 @@
         <v>151954</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3054,13 @@
         <v>108425</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -3075,13 +3069,13 @@
         <v>60306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>164</v>
@@ -3090,13 +3084,13 @@
         <v>168730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3105,13 @@
         <v>190114</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -3126,13 +3120,13 @@
         <v>125477</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>302</v>
@@ -3141,13 +3135,13 @@
         <v>315591</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,7 +3197,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3215,13 +3209,13 @@
         <v>16467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -3230,13 +3224,13 @@
         <v>12843</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -3245,13 +3239,13 @@
         <v>29309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3260,13 @@
         <v>18659</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3281,13 +3275,13 @@
         <v>18214</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -3296,13 +3290,13 @@
         <v>36873</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3311,13 @@
         <v>67975</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -3332,13 +3326,13 @@
         <v>54874</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -3347,13 +3341,13 @@
         <v>122849</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3362,13 @@
         <v>83394</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -3383,13 +3377,13 @@
         <v>42577</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>108</v>
@@ -3398,13 +3392,13 @@
         <v>125971</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3413,13 @@
         <v>178907</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -3434,13 +3428,13 @@
         <v>95786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>244</v>
@@ -3449,13 +3443,13 @@
         <v>274693</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,7 +3505,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3523,13 +3517,13 @@
         <v>7009</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -3538,13 +3532,13 @@
         <v>7043</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -3553,13 +3547,13 @@
         <v>14052</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3568,13 @@
         <v>8825</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3589,13 +3583,13 @@
         <v>5948</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -3604,13 +3598,13 @@
         <v>14773</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3619,13 @@
         <v>27415</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -3640,13 +3634,13 @@
         <v>14902</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -3655,13 +3649,13 @@
         <v>42318</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3670,13 @@
         <v>31833</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -3691,13 +3685,13 @@
         <v>14755</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -3706,13 +3700,13 @@
         <v>46588</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3721,13 @@
         <v>81214</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H32" s="7">
         <v>24</v>
@@ -3742,13 +3736,13 @@
         <v>25917</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
@@ -3757,13 +3751,13 @@
         <v>107131</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,7 +3769,7 @@
         <v>146</v>
       </c>
       <c r="D33" s="7">
-        <v>156296</v>
+        <v>156297</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -3819,7 +3813,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3831,13 +3825,13 @@
         <v>1000</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3846,13 +3840,13 @@
         <v>891</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -3861,13 +3855,13 @@
         <v>1890</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,10 +3879,10 @@
         <v>22</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3900,10 +3894,10 @@
         <v>22</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3915,10 +3909,10 @@
         <v>22</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3927,13 @@
         <v>1017</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3948,13 +3942,13 @@
         <v>981</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3963,13 +3957,13 @@
         <v>1998</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,10 +3981,10 @@
         <v>22</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4002,10 +3996,10 @@
         <v>22</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4017,10 +4011,10 @@
         <v>22</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4029,13 @@
         <v>1000</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4050,13 +4044,13 @@
         <v>967</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -4065,13 +4059,13 @@
         <v>1966</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4133,13 @@
         <v>58826</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H40" s="7">
         <v>56</v>
@@ -4154,13 +4148,13 @@
         <v>60240</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M40" s="7">
         <v>110</v>
@@ -4169,13 +4163,13 @@
         <v>119067</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4184,13 @@
         <v>75679</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H41" s="7">
         <v>57</v>
@@ -4205,13 +4199,13 @@
         <v>63767</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="M41" s="7">
         <v>125</v>
@@ -4220,13 +4214,13 @@
         <v>139446</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4235,13 @@
         <v>288346</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="H42" s="7">
         <v>184</v>
@@ -4256,13 +4250,13 @@
         <v>198680</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M42" s="7">
         <v>457</v>
@@ -4271,13 +4265,13 @@
         <v>487026</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>281</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,10 +4289,10 @@
         <v>282</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H43" s="7">
         <v>181</v>
@@ -4307,13 +4301,13 @@
         <v>198719</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M43" s="7">
         <v>493</v>
@@ -4322,13 +4316,13 @@
         <v>523559</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4337,13 @@
         <v>666760</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H44" s="7">
         <v>394</v>
@@ -4358,13 +4352,13 @@
         <v>422865</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M44" s="7">
         <v>1016</v>
@@ -4373,13 +4367,13 @@
         <v>1089625</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,7 +4429,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4457,7 +4451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB77565-7FB9-4F40-AD57-6D8C0B0C03CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A549795-F9A3-4178-88FC-6A9E5383A011}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4474,7 +4468,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4581,13 +4575,13 @@
         <v>2484</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4596,13 +4590,13 @@
         <v>4963</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4611,13 +4605,13 @@
         <v>7446</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4626,13 @@
         <v>10471</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4647,13 +4641,13 @@
         <v>13157</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>35</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4662,13 +4656,13 @@
         <v>23628</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4677,13 @@
         <v>23314</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4698,13 +4692,13 @@
         <v>22889</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -4713,13 +4707,13 @@
         <v>46203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>322</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4728,13 @@
         <v>17190</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -4749,13 +4743,13 @@
         <v>26124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4764,13 +4758,13 @@
         <v>43313</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4779,13 @@
         <v>25651</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -4800,10 +4794,10 @@
         <v>24723</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>337</v>
@@ -4940,13 +4934,13 @@
         <v>32936</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -4976,7 +4970,7 @@
         <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +4985,13 @@
         <v>84656</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -5006,13 +5000,13 @@
         <v>64104</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>362</v>
+        <v>175</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M12" s="7">
         <v>148</v>
@@ -5021,13 +5015,13 @@
         <v>148761</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5036,13 @@
         <v>89061</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -5057,13 +5051,13 @@
         <v>69965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -5072,13 +5066,13 @@
         <v>159026</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5087,13 @@
         <v>119070</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>89</v>
@@ -5108,13 +5102,13 @@
         <v>87976</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>202</v>
@@ -5123,13 +5117,13 @@
         <v>207045</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5191,13 @@
         <v>23288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -5212,13 +5206,13 @@
         <v>23543</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>166</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -5227,13 +5221,13 @@
         <v>46830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5242,13 @@
         <v>41922</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5263,13 +5257,13 @@
         <v>38575</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>13</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -5278,13 +5272,13 @@
         <v>80497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5293,13 @@
         <v>114691</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -5314,13 +5308,13 @@
         <v>66369</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M18" s="7">
         <v>175</v>
@@ -5329,13 +5323,13 @@
         <v>181060</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5344,13 @@
         <v>110688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -5365,13 +5359,13 @@
         <v>87373</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>193</v>
@@ -5380,13 +5374,13 @@
         <v>198061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5395,13 @@
         <v>168999</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -5416,13 +5410,13 @@
         <v>101554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
@@ -5431,13 +5425,13 @@
         <v>270554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,7 +5487,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5505,13 +5499,13 @@
         <v>23041</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -5520,13 +5514,13 @@
         <v>22475</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -5535,13 +5529,13 @@
         <v>45516</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5550,13 @@
         <v>32684</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -5571,13 +5565,13 @@
         <v>32559</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>179</v>
+        <v>433</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -5586,13 +5580,13 @@
         <v>65243</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>311</v>
+        <v>392</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5601,13 @@
         <v>96508</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -5622,13 +5616,13 @@
         <v>49780</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M24" s="7">
         <v>131</v>
@@ -5637,13 +5631,13 @@
         <v>146288</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>273</v>
+        <v>443</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5652,13 @@
         <v>104065</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -5673,13 +5667,13 @@
         <v>71176</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M25" s="7">
         <v>162</v>
@@ -5688,13 +5682,13 @@
         <v>175241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>454</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5703,13 @@
         <v>111430</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H26" s="7">
         <v>61</v>
@@ -5724,13 +5718,13 @@
         <v>67128</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -5739,13 +5733,13 @@
         <v>178558</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,7 +5795,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5813,13 +5807,13 @@
         <v>14248</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5828,13 +5822,13 @@
         <v>17865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -5843,13 +5837,13 @@
         <v>32113</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5858,13 @@
         <v>17579</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -5879,13 +5873,13 @@
         <v>12474</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>478</v>
+        <v>93</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -5894,13 +5888,13 @@
         <v>30053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5909,13 @@
         <v>38745</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>482</v>
+        <v>46</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -5930,13 +5924,13 @@
         <v>26327</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M30" s="7">
         <v>55</v>
@@ -5945,13 +5939,13 @@
         <v>65072</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>278</v>
+        <v>483</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5960,13 @@
         <v>40444</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -5981,13 +5975,13 @@
         <v>18723</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M31" s="7">
         <v>52</v>
@@ -5996,13 +5990,13 @@
         <v>59167</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>497</v>
+        <v>87</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6011,13 @@
         <v>54711</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -6032,13 +6026,13 @@
         <v>30489</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="M32" s="7">
         <v>74</v>
@@ -6047,13 +6041,13 @@
         <v>85200</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,7 +6103,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6124,10 +6118,10 @@
         <v>22</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6136,13 +6130,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6151,13 +6145,13 @@
         <v>1020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6166,13 @@
         <v>1845</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6190,10 +6184,10 @@
         <v>22</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -6202,13 +6196,13 @@
         <v>1846</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,10 +6220,10 @@
         <v>22</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6238,13 +6232,13 @@
         <v>905</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6253,13 +6247,13 @@
         <v>905</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6268,13 @@
         <v>1970</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6289,13 +6283,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6304,13 +6298,13 @@
         <v>3153</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6319,13 @@
         <v>2170</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6340,13 +6334,13 @@
         <v>2082</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6355,13 +6349,13 @@
         <v>4252</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>532</v>
+        <v>316</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6423,13 @@
         <v>81523</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H40" s="7">
         <v>86</v>
@@ -6444,13 +6438,13 @@
         <v>90677</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M40" s="7">
         <v>161</v>
@@ -6459,13 +6453,13 @@
         <v>172200</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>77</v>
+        <v>535</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6474,13 @@
         <v>137436</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>518</v>
+        <v>353</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H41" s="7">
         <v>129</v>
@@ -6495,13 +6489,13 @@
         <v>127625</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M41" s="7">
         <v>259</v>
@@ -6510,13 +6504,13 @@
         <v>265061</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>436</v>
+        <v>543</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6525,13 @@
         <v>357915</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H42" s="7">
         <v>227</v>
@@ -6546,13 +6540,13 @@
         <v>230374</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M42" s="7">
         <v>555</v>
@@ -6561,13 +6555,13 @@
         <v>588290</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6576,13 @@
         <v>363417</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>361</v>
+        <v>555</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>446</v>
+        <v>556</v>
       </c>
       <c r="H43" s="7">
         <v>270</v>
@@ -6597,13 +6591,13 @@
         <v>274543</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>559</v>
-      </c>
       <c r="L43" s="7" t="s">
-        <v>560</v>
+        <v>448</v>
       </c>
       <c r="M43" s="7">
         <v>613</v>
@@ -6612,13 +6606,13 @@
         <v>637961</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +6627,13 @@
         <v>482031</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="H44" s="7">
         <v>301</v>
@@ -6648,13 +6642,13 @@
         <v>313952</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="M44" s="7">
         <v>748</v>
@@ -6663,13 +6657,13 @@
         <v>795983</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,7 +6719,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6713-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC24C0DA-7056-4057-9884-3FB144F52EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DBE6750-AC89-4FB6-8465-32DDB48D0912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9252DD38-CB0A-48BC-A963-CBABCA150455}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DA83272-7E5D-41B1-9AE9-46CB551CD1B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="567">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>6,23%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>3,28%</t>
@@ -87,16 +87,16 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>8,84%</t>
+    <t>9,6%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -108,25 +108,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,85%</t>
+    <t>8,86%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -135,1621 +135,1609 @@
     <t>22,73%</t>
   </si>
   <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>29,09%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>33,89%</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
 </sst>
 </file>
@@ -2161,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A0E75D-7F57-4246-9218-1549FA74922D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789C18BC-D9F1-4890-8ABA-FD86B56818EA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2934,10 +2922,10 @@
         <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2940,13 @@
         <v>26054</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -2967,13 +2955,13 @@
         <v>17661</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -2982,13 +2970,13 @@
         <v>43714</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,13 +2991,13 @@
         <v>87398</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>61</v>
@@ -3018,13 +3006,13 @@
         <v>64556</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>148</v>
@@ -3033,13 +3021,13 @@
         <v>151954</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3042,13 @@
         <v>108425</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -3069,13 +3057,13 @@
         <v>60306</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>164</v>
@@ -3084,13 +3072,13 @@
         <v>168730</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3093,13 @@
         <v>190114</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -3120,13 +3108,13 @@
         <v>125477</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>302</v>
@@ -3135,13 +3123,13 @@
         <v>315591</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,7 +3185,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3209,13 +3197,13 @@
         <v>16467</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -3224,13 +3212,13 @@
         <v>12843</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -3239,13 +3227,13 @@
         <v>29309</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3248,13 @@
         <v>18659</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3275,13 +3263,13 @@
         <v>18214</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -3290,13 +3278,13 @@
         <v>36873</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3299,13 @@
         <v>67975</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>48</v>
@@ -3326,13 +3314,13 @@
         <v>54874</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -3341,13 +3329,13 @@
         <v>122849</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3350,13 @@
         <v>83394</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -3377,13 +3365,13 @@
         <v>42577</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>108</v>
@@ -3392,13 +3380,13 @@
         <v>125971</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3401,13 @@
         <v>178907</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -3428,13 +3416,13 @@
         <v>95786</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>244</v>
@@ -3443,13 +3431,13 @@
         <v>274693</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,7 +3493,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3517,13 +3505,13 @@
         <v>7009</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -3532,13 +3520,13 @@
         <v>7043</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -3547,13 +3535,13 @@
         <v>14052</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3556,13 @@
         <v>8825</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3583,13 +3571,13 @@
         <v>5948</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -3598,13 +3586,13 @@
         <v>14773</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3607,13 @@
         <v>27415</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -3634,13 +3622,13 @@
         <v>14902</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -3649,13 +3637,13 @@
         <v>42318</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3658,13 @@
         <v>31833</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -3685,13 +3673,13 @@
         <v>14755</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -3700,13 +3688,13 @@
         <v>46588</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3709,13 @@
         <v>81214</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>24</v>
@@ -3736,13 +3724,13 @@
         <v>25917</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
@@ -3751,13 +3739,13 @@
         <v>107131</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,7 +3801,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3825,13 +3813,13 @@
         <v>1000</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3840,13 +3828,13 @@
         <v>891</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -3855,13 +3843,13 @@
         <v>1890</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,10 +3867,10 @@
         <v>22</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3894,10 +3882,10 @@
         <v>22</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3909,10 +3897,10 @@
         <v>22</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3915,13 @@
         <v>1017</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3942,13 +3930,13 @@
         <v>981</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3957,13 +3945,13 @@
         <v>1998</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,10 +3969,10 @@
         <v>22</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3996,10 +3984,10 @@
         <v>22</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4011,10 +3999,10 @@
         <v>22</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4017,13 @@
         <v>1000</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4044,13 +4032,13 @@
         <v>967</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -4059,13 +4047,13 @@
         <v>1966</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4121,13 @@
         <v>58826</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
       <c r="H40" s="7">
         <v>56</v>
@@ -4148,13 +4136,13 @@
         <v>60240</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M40" s="7">
         <v>110</v>
@@ -4163,13 +4151,13 @@
         <v>119067</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4172,13 @@
         <v>75679</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H41" s="7">
         <v>57</v>
@@ -4199,13 +4187,13 @@
         <v>63767</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="M41" s="7">
         <v>125</v>
@@ -4214,13 +4202,13 @@
         <v>139446</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4223,13 @@
         <v>288346</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="H42" s="7">
         <v>184</v>
@@ -4250,13 +4238,13 @@
         <v>198680</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M42" s="7">
         <v>457</v>
@@ -4265,13 +4253,13 @@
         <v>487026</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>80</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4274,13 @@
         <v>324840</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H43" s="7">
         <v>181</v>
@@ -4301,13 +4289,13 @@
         <v>198719</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M43" s="7">
         <v>493</v>
@@ -4316,13 +4304,13 @@
         <v>523559</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4325,13 @@
         <v>666760</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H44" s="7">
         <v>394</v>
@@ -4352,13 +4340,13 @@
         <v>422865</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M44" s="7">
         <v>1016</v>
@@ -4367,13 +4355,13 @@
         <v>1089625</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,7 +4417,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A549795-F9A3-4178-88FC-6A9E5383A011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4637465-112E-4F1C-B6C6-F64AE102BBB9}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4468,7 +4456,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4575,13 +4563,13 @@
         <v>2484</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4590,13 +4578,13 @@
         <v>4963</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4605,13 +4593,13 @@
         <v>7446</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4614,13 @@
         <v>10471</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4641,13 +4629,13 @@
         <v>13157</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4656,13 +4644,13 @@
         <v>23628</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4665,13 @@
         <v>23314</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4692,13 +4680,13 @@
         <v>22889</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -4707,13 +4695,13 @@
         <v>46203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4716,13 @@
         <v>17190</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -4743,13 +4731,13 @@
         <v>26124</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4758,13 +4746,13 @@
         <v>43313</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4767,13 @@
         <v>25651</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -4794,13 +4782,13 @@
         <v>24723</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -4809,13 +4797,13 @@
         <v>50374</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4871,13 @@
         <v>18462</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4898,13 +4886,13 @@
         <v>20812</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -4913,13 +4901,13 @@
         <v>39275</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4922,13 @@
         <v>32936</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -4949,13 +4937,13 @@
         <v>30859</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -4964,13 +4952,13 @@
         <v>63795</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,10 +4973,10 @@
         <v>84656</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>358</v>
@@ -5003,7 +4991,7 @@
         <v>359</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>360</v>
@@ -5015,13 +5003,13 @@
         <v>148761</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5024,13 @@
         <v>89061</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -5051,13 +5039,13 @@
         <v>69965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -5066,13 +5054,13 @@
         <v>159026</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5075,13 @@
         <v>119070</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>89</v>
@@ -5102,13 +5090,13 @@
         <v>87976</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>202</v>
@@ -5117,13 +5105,13 @@
         <v>207045</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5179,13 @@
         <v>23288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -5209,10 +5197,10 @@
         <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -5221,13 +5209,13 @@
         <v>46830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5230,13 @@
         <v>41922</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5257,13 +5245,13 @@
         <v>38575</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>13</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -5272,13 +5260,13 @@
         <v>80497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5281,13 @@
         <v>114691</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -5308,13 +5296,13 @@
         <v>66369</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M18" s="7">
         <v>175</v>
@@ -5323,10 +5311,10 @@
         <v>181060</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>401</v>
+        <v>221</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>402</v>
@@ -5344,7 +5332,7 @@
         <v>110688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>403</v>
@@ -5487,7 +5475,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5553,10 +5541,10 @@
         <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -5565,13 +5553,13 @@
         <v>32559</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -5580,13 +5568,13 @@
         <v>65243</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5589,13 @@
         <v>96508</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -5616,13 +5604,13 @@
         <v>49780</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M24" s="7">
         <v>131</v>
@@ -5631,13 +5619,13 @@
         <v>146288</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>443</v>
+        <v>277</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5640,13 @@
         <v>104065</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -5667,13 +5655,13 @@
         <v>71176</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>162</v>
@@ -5682,13 +5670,13 @@
         <v>175241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5691,13 @@
         <v>111430</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>61</v>
@@ -5718,13 +5706,13 @@
         <v>67128</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -5733,13 +5721,13 @@
         <v>178558</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,7 +5783,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5807,13 +5795,13 @@
         <v>14248</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5822,13 +5810,13 @@
         <v>17865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -5837,13 +5825,13 @@
         <v>32113</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>468</v>
+        <v>213</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5846,13 @@
         <v>17579</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>471</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>472</v>
+        <v>124</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -5873,13 +5861,13 @@
         <v>12474</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -5888,13 +5876,13 @@
         <v>30053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>426</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5897,13 @@
         <v>38745</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>46</v>
+        <v>475</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>478</v>
+        <v>318</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -5924,13 +5912,13 @@
         <v>26327</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M30" s="7">
         <v>55</v>
@@ -5939,13 +5927,13 @@
         <v>65072</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5948,13 @@
         <v>40444</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -5975,13 +5963,13 @@
         <v>18723</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M31" s="7">
         <v>52</v>
@@ -5990,13 +5978,13 @@
         <v>59167</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +5999,13 @@
         <v>54711</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -6026,13 +6014,13 @@
         <v>30489</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="M32" s="7">
         <v>74</v>
@@ -6041,13 +6029,13 @@
         <v>85200</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,7 +6091,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6118,10 +6106,10 @@
         <v>22</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6130,13 +6118,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6145,13 +6133,13 @@
         <v>1020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6154,13 @@
         <v>1845</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6184,10 +6172,10 @@
         <v>22</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -6196,13 +6184,13 @@
         <v>1846</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>510</v>
+        <v>87</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>511</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,10 +6208,10 @@
         <v>22</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6232,13 +6220,13 @@
         <v>905</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6247,13 +6235,13 @@
         <v>905</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6256,13 @@
         <v>1970</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>516</v>
+        <v>407</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6283,13 +6271,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6298,13 +6286,13 @@
         <v>3153</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6307,13 @@
         <v>2170</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6334,13 +6322,13 @@
         <v>2082</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6349,13 +6337,13 @@
         <v>4252</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>316</v>
+        <v>523</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6411,13 @@
         <v>81523</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H40" s="7">
         <v>86</v>
@@ -6438,13 +6426,13 @@
         <v>90677</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M40" s="7">
         <v>161</v>
@@ -6453,13 +6441,13 @@
         <v>172200</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6462,13 @@
         <v>137436</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>353</v>
+        <v>534</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H41" s="7">
         <v>129</v>
@@ -6489,13 +6477,13 @@
         <v>127625</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M41" s="7">
         <v>259</v>
@@ -6504,13 +6492,13 @@
         <v>265061</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,13 +6513,13 @@
         <v>357915</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H42" s="7">
         <v>227</v>
@@ -6540,13 +6528,13 @@
         <v>230374</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="M42" s="7">
         <v>555</v>
@@ -6555,13 +6543,13 @@
         <v>588290</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,13 +6564,13 @@
         <v>363417</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>554</v>
+        <v>185</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H43" s="7">
         <v>270</v>
@@ -6591,13 +6579,13 @@
         <v>274543</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>557</v>
+        <v>402</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>448</v>
+        <v>554</v>
       </c>
       <c r="M43" s="7">
         <v>613</v>
@@ -6606,13 +6594,13 @@
         <v>637961</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6615,13 @@
         <v>482031</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H44" s="7">
         <v>301</v>
@@ -6642,13 +6630,13 @@
         <v>313952</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M44" s="7">
         <v>748</v>
@@ -6657,13 +6645,13 @@
         <v>795983</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6713-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DBE6750-AC89-4FB6-8465-32DDB48D0912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB8309A-CC7D-4B01-BB74-8A1E9B79FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DA83272-7E5D-41B1-9AE9-46CB551CD1B2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{419B0E21-09F3-4631-97E2-6AB88EC6BDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="572">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -222,7 +222,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -360,7 +360,7 @@
     <t>50,51%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,87%</t>
@@ -489,7 +489,7 @@
     <t>48,27%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>4,51%</t>
@@ -624,7 +624,7 @@
     <t>51,15%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>4,48%</t>
@@ -756,7 +756,7 @@
     <t>54,75%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>33,14%</t>
@@ -804,6 +804,12 @@
     <t>68,83%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>4,16%</t>
   </si>
   <si>
@@ -1542,25 +1548,28 @@
     <t>37,54%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>19,65%</t>
   </si>
   <si>
     <t>79,68%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
   </si>
   <si>
     <t>17,44%</t>
@@ -1569,13 +1578,16 @@
     <t>75,37%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
   </si>
   <si>
     <t>22,79%</t>
@@ -1584,19 +1596,16 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>40,12%</t>
@@ -1605,13 +1614,19 @@
     <t>82,2%</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>4,64%</t>
@@ -2149,8 +2164,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789C18BC-D9F1-4890-8ABA-FD86B56818EA}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F138DE7F-C70B-4F44-9C0F-2D3513A45959}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2761,7 +2776,7 @@
         <v>143</v>
       </c>
       <c r="N13" s="7">
-        <v>146412</v>
+        <v>146413</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>95</v>
@@ -2812,7 +2827,7 @@
         <v>288</v>
       </c>
       <c r="N14" s="7">
-        <v>306634</v>
+        <v>306635</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>104</v>
@@ -2863,7 +2878,7 @@
         <v>624</v>
       </c>
       <c r="N15" s="7">
-        <v>657674</v>
+        <v>657675</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -4109,55 +4124,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>54</v>
-      </c>
-      <c r="D40" s="7">
-        <v>58826</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>256</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="H40" s="7">
-        <v>56</v>
-      </c>
-      <c r="I40" s="7">
-        <v>60240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
-        <v>110</v>
-      </c>
-      <c r="N40" s="7">
-        <v>119067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,49 +4175,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>68</v>
-      </c>
-      <c r="D41" s="7">
-        <v>75679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H41" s="7">
-        <v>57</v>
-      </c>
-      <c r="I41" s="7">
-        <v>63767</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
-        <v>125</v>
-      </c>
-      <c r="N41" s="7">
-        <v>139446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,49 +4220,43 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>273</v>
-      </c>
-      <c r="D42" s="7">
-        <v>288346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="H42" s="7">
-        <v>184</v>
-      </c>
-      <c r="I42" s="7">
-        <v>198680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
-        <v>457</v>
-      </c>
-      <c r="N42" s="7">
-        <v>487026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,49 +4265,43 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>312</v>
-      </c>
-      <c r="D43" s="7">
-        <v>324840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="H43" s="7">
-        <v>181</v>
-      </c>
-      <c r="I43" s="7">
-        <v>198719</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
-        <v>493</v>
-      </c>
-      <c r="N43" s="7">
-        <v>523559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,49 +4310,43 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>622</v>
-      </c>
-      <c r="D44" s="7">
-        <v>666760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="H44" s="7">
-        <v>394</v>
-      </c>
-      <c r="I44" s="7">
-        <v>422865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
-        <v>1016</v>
-      </c>
-      <c r="N44" s="7">
-        <v>1089625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,63 +4355,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>54</v>
+      </c>
+      <c r="D46" s="7">
+        <v>58826</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="7">
+        <v>56</v>
+      </c>
+      <c r="I46" s="7">
+        <v>60240</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M46" s="7">
+        <v>110</v>
+      </c>
+      <c r="N46" s="7">
+        <v>119067</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>68</v>
+      </c>
+      <c r="D47" s="7">
+        <v>75679</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H47" s="7">
+        <v>57</v>
+      </c>
+      <c r="I47" s="7">
+        <v>63767</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M47" s="7">
+        <v>125</v>
+      </c>
+      <c r="N47" s="7">
+        <v>139446</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>273</v>
+      </c>
+      <c r="D48" s="7">
+        <v>288346</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H48" s="7">
+        <v>184</v>
+      </c>
+      <c r="I48" s="7">
+        <v>198680</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M48" s="7">
+        <v>457</v>
+      </c>
+      <c r="N48" s="7">
+        <v>487026</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>312</v>
+      </c>
+      <c r="D49" s="7">
+        <v>324840</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="7">
+        <v>181</v>
+      </c>
+      <c r="I49" s="7">
+        <v>198719</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M49" s="7">
+        <v>493</v>
+      </c>
+      <c r="N49" s="7">
+        <v>523559</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>622</v>
+      </c>
+      <c r="D50" s="7">
+        <v>666760</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H50" s="7">
+        <v>394</v>
+      </c>
+      <c r="I50" s="7">
+        <v>422865</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1016</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1089625</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1329</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1414451</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>872</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>944272</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2201</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2358722</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>297</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4439,8 +4727,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4637465-112E-4F1C-B6C6-F64AE102BBB9}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851D5248-3263-4CF8-8BAC-1F0F69C40CF0}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4456,7 +4744,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4569,7 +4857,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4578,13 +4866,13 @@
         <v>4963</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4593,13 +4881,13 @@
         <v>7446</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4902,13 @@
         <v>10471</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4629,13 +4917,13 @@
         <v>13157</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -4644,13 +4932,13 @@
         <v>23628</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4953,13 @@
         <v>23314</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4680,13 +4968,13 @@
         <v>22889</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -4695,13 +4983,13 @@
         <v>46203</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,10 +5007,10 @@
         <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -4731,13 +5019,13 @@
         <v>26124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4746,13 +5034,13 @@
         <v>43313</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +5055,13 @@
         <v>25651</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -4782,13 +5070,13 @@
         <v>24723</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -4797,13 +5085,13 @@
         <v>50374</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +5159,13 @@
         <v>18462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4886,13 +5174,13 @@
         <v>20812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -4901,13 +5189,13 @@
         <v>39275</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +5210,13 @@
         <v>32936</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -4937,13 +5225,13 @@
         <v>30859</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -4952,10 +5240,10 @@
         <v>63795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>165</v>
@@ -4973,13 +5261,13 @@
         <v>84656</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -4988,13 +5276,13 @@
         <v>64104</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>96</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>148</v>
@@ -5003,13 +5291,13 @@
         <v>148761</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5312,13 @@
         <v>89061</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -5042,10 +5330,10 @@
         <v>132</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -5054,13 +5342,13 @@
         <v>159026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5363,13 @@
         <v>119070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>89</v>
@@ -5093,10 +5381,10 @@
         <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>202</v>
@@ -5105,13 +5393,13 @@
         <v>207045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5467,13 @@
         <v>23288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -5194,13 +5482,13 @@
         <v>23543</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -5209,13 +5497,13 @@
         <v>46830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5518,13 @@
         <v>41922</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -5245,13 +5533,13 @@
         <v>38575</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -5263,10 +5551,10 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5569,13 @@
         <v>114691</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -5296,13 +5584,13 @@
         <v>66369</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M18" s="7">
         <v>175</v>
@@ -5311,13 +5599,13 @@
         <v>181060</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>221</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5620,13 @@
         <v>110688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -5347,13 +5635,13 @@
         <v>87373</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>193</v>
@@ -5362,13 +5650,13 @@
         <v>198061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5671,13 @@
         <v>168999</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>99</v>
@@ -5398,28 +5686,28 @@
         <v>101554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
       </c>
       <c r="N20" s="7">
-        <v>270554</v>
+        <v>270553</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,7 +5749,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5487,13 +5775,13 @@
         <v>23041</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -5502,13 +5790,13 @@
         <v>22475</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -5517,13 +5805,13 @@
         <v>45516</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5826,13 @@
         <v>32684</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -5553,13 +5841,13 @@
         <v>32559</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -5568,13 +5856,13 @@
         <v>65243</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5877,13 @@
         <v>96508</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -5604,13 +5892,13 @@
         <v>49780</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M24" s="7">
         <v>131</v>
@@ -5619,13 +5907,13 @@
         <v>146288</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5928,13 @@
         <v>104065</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -5655,13 +5943,13 @@
         <v>71176</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>162</v>
@@ -5670,13 +5958,13 @@
         <v>175241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5979,13 @@
         <v>111430</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>61</v>
@@ -5706,13 +5994,13 @@
         <v>67128</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -5721,10 +6009,10 @@
         <v>178558</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>240</v>
@@ -5795,13 +6083,13 @@
         <v>14248</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5810,13 +6098,13 @@
         <v>17865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -5828,10 +6116,10 @@
         <v>213</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,7 +6134,7 @@
         <v>17579</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>115</v>
@@ -5861,13 +6149,13 @@
         <v>12474</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -5876,10 +6164,10 @@
         <v>30053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>38</v>
@@ -5897,13 +6185,13 @@
         <v>38745</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -5912,13 +6200,13 @@
         <v>26327</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M30" s="7">
         <v>55</v>
@@ -5927,13 +6215,13 @@
         <v>65072</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +6236,13 @@
         <v>40444</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -5963,13 +6251,13 @@
         <v>18723</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M31" s="7">
         <v>52</v>
@@ -5978,13 +6266,13 @@
         <v>59167</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6287,13 @@
         <v>54711</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -6014,13 +6302,13 @@
         <v>30489</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M32" s="7">
         <v>74</v>
@@ -6029,13 +6317,13 @@
         <v>85200</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,7 +6397,7 @@
         <v>245</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>247</v>
+        <v>503</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6118,13 +6406,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6133,13 +6421,13 @@
         <v>1020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,19 +6436,19 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>1845</v>
+        <v>1050</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>505</v>
+        <v>328</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6175,22 +6463,22 @@
         <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>1846</v>
+        <v>1050</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>87</v>
+        <v>509</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>101</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,7 +6499,7 @@
         <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>503</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6220,13 +6508,13 @@
         <v>905</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6235,13 +6523,13 @@
         <v>905</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6544,13 @@
         <v>1970</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>407</v>
+        <v>515</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6271,13 +6559,13 @@
         <v>1183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6286,13 +6574,13 @@
         <v>3153</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>516</v>
+        <v>117</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6595,13 @@
         <v>2170</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6322,13 +6610,13 @@
         <v>2082</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6337,13 +6625,13 @@
         <v>4252</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,10 +6640,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -6382,10 +6670,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -6399,55 +6687,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>81523</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>525</v>
+        <v>245</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H40" s="7">
-        <v>86</v>
-      </c>
-      <c r="I40" s="7">
-        <v>90677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="M40" s="7">
-        <v>161</v>
-      </c>
-      <c r="N40" s="7">
-        <v>172200</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,49 +6742,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>137436</v>
+        <v>795</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>533</v>
+        <v>241</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>535</v>
+        <v>60</v>
       </c>
       <c r="H41" s="7">
-        <v>129</v>
-      </c>
-      <c r="I41" s="7">
-        <v>127625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>536</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>537</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>538</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
-        <v>259</v>
+        <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>265061</v>
+        <v>795</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>539</v>
+        <v>241</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>541</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,49 +6791,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>357915</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>542</v>
+        <v>22</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>543</v>
+        <v>245</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="H42" s="7">
-        <v>227</v>
-      </c>
-      <c r="I42" s="7">
-        <v>230374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>545</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>546</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>547</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>588290</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>548</v>
+        <v>22</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>549</v>
+        <v>245</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,49 +6840,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>363417</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>551</v>
+        <v>245</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="H43" s="7">
-        <v>270</v>
-      </c>
-      <c r="I43" s="7">
-        <v>274543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>402</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>553</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>554</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>637961</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>555</v>
+        <v>22</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>556</v>
+        <v>245</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,49 +6889,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>482031</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>558</v>
+        <v>22</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>559</v>
+        <v>245</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="H44" s="7">
-        <v>301</v>
-      </c>
-      <c r="I44" s="7">
-        <v>313952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>561</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>562</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>563</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>795983</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>564</v>
+        <v>22</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>565</v>
+        <v>245</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>566</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6660,63 +6938,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>75</v>
+      </c>
+      <c r="D46" s="7">
+        <v>81523</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H46" s="7">
+        <v>86</v>
+      </c>
+      <c r="I46" s="7">
+        <v>90677</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="M46" s="7">
+        <v>161</v>
+      </c>
+      <c r="N46" s="7">
+        <v>172200</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>130</v>
+      </c>
+      <c r="D47" s="7">
+        <v>137436</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="H47" s="7">
+        <v>129</v>
+      </c>
+      <c r="I47" s="7">
+        <v>127625</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="M47" s="7">
+        <v>259</v>
+      </c>
+      <c r="N47" s="7">
+        <v>265061</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>328</v>
+      </c>
+      <c r="D48" s="7">
+        <v>357915</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H48" s="7">
+        <v>227</v>
+      </c>
+      <c r="I48" s="7">
+        <v>230374</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="M48" s="7">
+        <v>555</v>
+      </c>
+      <c r="N48" s="7">
+        <v>588290</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>343</v>
+      </c>
+      <c r="D49" s="7">
+        <v>363417</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="H49" s="7">
+        <v>270</v>
+      </c>
+      <c r="I49" s="7">
+        <v>274543</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="M49" s="7">
+        <v>613</v>
+      </c>
+      <c r="N49" s="7">
+        <v>637961</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>447</v>
+      </c>
+      <c r="D50" s="7">
+        <v>482031</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="H50" s="7">
+        <v>301</v>
+      </c>
+      <c r="I50" s="7">
+        <v>313952</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="M50" s="7">
+        <v>748</v>
+      </c>
+      <c r="N50" s="7">
+        <v>795983</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>297</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
